--- a/server/assets/Products_import.xlsx
+++ b/server/assets/Products_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Образец\Ресурсы\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Для БОМ\2\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE786C-6A44-47BC-967D-6DBF49EDAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFFE2B-364D-4434-9E37-C0A2988086AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="1836" windowWidth="22104" windowHeight="10104" xr2:uid="{F87D516F-3434-46D1-973A-2CB2CFB69BBE}"/>
+    <workbookView xWindow="1176" yWindow="636" windowWidth="22104" windowHeight="11100" xr2:uid="{4722C91F-7318-49D2-B836-23BF080B6ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Products_import" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Тип продукции</t>
   </si>
@@ -45,28 +45,79 @@
     <t>Артикул</t>
   </si>
   <si>
-    <t>Паркетная доска</t>
-  </si>
-  <si>
-    <t>Паркетная доска Ясень темный однополосная 14 мм</t>
-  </si>
-  <si>
-    <t>Инженерная доска Дуб Французская елка однополосная 12 мм</t>
-  </si>
-  <si>
-    <t>Ламинат</t>
-  </si>
-  <si>
-    <t>Ламинат Дуб дымчато-белый 33 класс 12 мм</t>
-  </si>
-  <si>
-    <t>Ламинат Дуб серый 32 класс 8 мм с фаской</t>
-  </si>
-  <si>
-    <t>Пробковое покрытие</t>
-  </si>
-  <si>
-    <t>Пробковое напольное клеевое покрытие 32 класс 4 мм</t>
+    <t>Ширина рулона, м</t>
+  </si>
+  <si>
+    <t>Декоративные обои</t>
+  </si>
+  <si>
+    <t>Обои из природного материала Традиционный принт светло-коричневые</t>
+  </si>
+  <si>
+    <t>Фотообои</t>
+  </si>
+  <si>
+    <t>Фотообои флизелиновые Горы 500x270 см</t>
+  </si>
+  <si>
+    <t>Обои под покраску</t>
+  </si>
+  <si>
+    <t>Обои под покраску флизелиновые Рельеф</t>
+  </si>
+  <si>
+    <t>Стеклообои</t>
+  </si>
+  <si>
+    <t>Стеклообои Рогожка белые</t>
+  </si>
+  <si>
+    <t>Обои флизелиновые Эвелин светло-серые</t>
+  </si>
+  <si>
+    <t>Фотообои флизелиновые 3D Лес и горы 300x280 см</t>
+  </si>
+  <si>
+    <t>Обои под покраску флизелиновые цвет белый</t>
+  </si>
+  <si>
+    <t>Стеклохолст</t>
+  </si>
+  <si>
+    <t>Флизелиновые обои Принт Вензель серые</t>
+  </si>
+  <si>
+    <t>Фотообои флизелиновые Узор 300x270 см</t>
+  </si>
+  <si>
+    <t>Обои под покраску флизелиновые Кирпичная стена</t>
+  </si>
+  <si>
+    <t>Стеклообои Средняя елка белые</t>
+  </si>
+  <si>
+    <t>Обои бумажные Полосы цвет бежевый</t>
+  </si>
+  <si>
+    <t>Фотообои Тропики 290x260 см</t>
+  </si>
+  <si>
+    <t>Обои под покраску Рисунок Штукатурка белые</t>
+  </si>
+  <si>
+    <t>Стеклообои Геометрические фигуры белые </t>
+  </si>
+  <si>
+    <t>Обои флизелиновые Лилия бежевые</t>
+  </si>
+  <si>
+    <t>Фотообои флизелиновые 3D Пейзаж 300x280 см</t>
+  </si>
+  <si>
+    <t>Обои под покраску флизелиновые однотонные цвет белый </t>
+  </si>
+  <si>
+    <t>Стеклохолст малярный Паутинка</t>
   </si>
   <si>
     <t>Минимальная стоимость для партнера</t>
@@ -422,22 +473,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425D53B-1D2F-4A0E-8E42-E22E2D559671}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F60BEB-B3EA-4C8F-B36E-DD78A5A538D1}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,77 +500,350 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1549922</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16950</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2018556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15880</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3028272</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11080</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>4029272</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5898</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>8758385</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4456.8999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8858958</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7330.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1028248</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7750282</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1799.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2118827</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12500.96</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>3130981</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4320.5600000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>4029784</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2998.99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1658953</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16200.96</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>2026662</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8780.69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>7028748</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3890.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3159043</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15750</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5012543</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5450.59</v>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>4588376</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1758375</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13500.96</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2759324</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6980</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>3118827</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5890</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>4559898</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5369</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1259474</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9750.7900000000009</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2115947</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16850</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>3033136</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3390</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>4028048</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
